--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\ai_hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2EA78B-448F-410E-AF56-79FE337011D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690B718D-305F-4DDF-8FB8-E9376FEDE8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>Input Type</t>
   </si>
@@ -44,17 +44,23 @@
     <t>Turns to Go</t>
   </si>
   <si>
-    <t>Average Score</t>
+    <t>Optimal</t>
   </si>
   <si>
-    <t>Optimal</t>
+    <t>ours</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +73,12 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,11 +141,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -143,6 +166,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="I2" sqref="H2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,13 +493,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -479,19 +514,22 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>3.04</v>
+        <v>3.82</v>
       </c>
       <c r="E2" s="2">
         <v>4.9000000000000004</v>
       </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>-1.8600000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.0800000000000005</v>
+      </c>
+      <c r="G2">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -500,19 +538,22 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>32.200000000000003</v>
+        <v>69.38</v>
       </c>
       <c r="E3" s="3">
         <v>73.84</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F26" si="0">D3-E3</f>
-        <v>-41.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-4.460000000000008</v>
+      </c>
+      <c r="G3">
+        <v>65.260000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -521,19 +562,22 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>28.36</v>
+        <v>79.08</v>
       </c>
       <c r="E4" s="3">
         <v>80.239999999999995</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>-51.879999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.1599999999999966</v>
+      </c>
+      <c r="G4">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -542,19 +586,22 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>21.52</v>
+        <v>20.88</v>
       </c>
       <c r="E5" s="3">
-        <v>24.92</v>
+        <v>24.44</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>-3.4000000000000021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-3.5600000000000023</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -563,19 +610,22 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
-        <v>13.92</v>
+        <v>13.61</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>-2.1199999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.60999999999999943</v>
+      </c>
+      <c r="G6">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -584,19 +634,22 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>52.28</v>
+        <v>53.54</v>
       </c>
       <c r="E7" s="3">
         <v>57.34</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>-5.0600000000000023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-3.8000000000000043</v>
+      </c>
+      <c r="G7">
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -605,19 +658,22 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>32.6</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="E8" s="3">
         <v>36.6</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.71999999999999886</v>
+      </c>
+      <c r="G8">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -626,19 +682,22 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>38.159999999999997</v>
+        <v>38.24</v>
       </c>
       <c r="E9" s="3">
         <v>39.64</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>-1.480000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.3999999999999986</v>
+      </c>
+      <c r="G9">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -647,19 +706,22 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>3.72</v>
+        <v>6.56</v>
       </c>
       <c r="E10" s="3">
         <v>7.16</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>-3.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="G10">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -668,19 +730,22 @@
         <v>60</v>
       </c>
       <c r="D11">
-        <v>57.44</v>
+        <v>59.44</v>
       </c>
       <c r="E11" s="3">
         <v>60.04</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>-2.6000000000000014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="G11">
+        <v>59.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -689,19 +754,22 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>7.38</v>
+        <v>8.16</v>
       </c>
       <c r="E12" s="3">
         <v>10.119999999999999</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>-2.7399999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.9599999999999991</v>
+      </c>
+      <c r="G12">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -710,19 +778,22 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>26.8</v>
+        <v>26.64</v>
       </c>
       <c r="E13" s="3">
         <v>27.12</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>-0.32000000000000028</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.48000000000000043</v>
+      </c>
+      <c r="G13">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -731,19 +802,22 @@
         <v>80</v>
       </c>
       <c r="D14">
-        <v>76.64</v>
+        <v>77.680000000000007</v>
       </c>
       <c r="E14" s="3">
-        <v>81.760000000000005</v>
+        <v>81.12</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>-5.1200000000000045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-3.4399999999999977</v>
+      </c>
+      <c r="G14">
+        <v>77.760000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -752,19 +826,22 @@
         <v>90</v>
       </c>
       <c r="D15">
-        <v>88.16</v>
+        <v>89.56</v>
       </c>
       <c r="E15" s="3">
         <v>94.84</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>-6.6800000000000068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-5.2800000000000011</v>
+      </c>
+      <c r="G15">
+        <v>90.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -773,19 +850,22 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>13.84</v>
+        <v>13.4</v>
       </c>
       <c r="E16" s="3">
-        <v>13.68</v>
+        <v>14.08</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0.16000000000000014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.67999999999999972</v>
+      </c>
+      <c r="G16">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -794,19 +874,22 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>13.12</v>
+        <v>13.24</v>
       </c>
       <c r="E17" s="3">
         <v>14.56</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>-1.4400000000000013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.3200000000000003</v>
+      </c>
+      <c r="G17">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -815,19 +898,22 @@
         <v>35</v>
       </c>
       <c r="D18">
-        <v>25.8</v>
+        <v>26.32</v>
       </c>
       <c r="E18" s="3">
-        <v>27.04</v>
+        <v>27.44</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>-1.2399999999999984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.120000000000001</v>
+      </c>
+      <c r="G18">
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -836,19 +922,22 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>45.28</v>
+        <v>45.96</v>
       </c>
       <c r="E19" s="3">
         <v>49.04</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>-3.759999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-3.0799999999999983</v>
+      </c>
+      <c r="G19">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -857,19 +946,22 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>27.7</v>
+        <v>29.68</v>
       </c>
       <c r="E20" s="3">
         <v>31.04</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>-3.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.3599999999999994</v>
+      </c>
+      <c r="G20">
+        <v>30.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -878,19 +970,22 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <v>35.36</v>
+        <v>35.6</v>
       </c>
       <c r="E21" s="3">
         <v>37.200000000000003</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>-1.8400000000000034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="G21">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -899,19 +994,22 @@
         <v>70</v>
       </c>
       <c r="D22">
-        <v>122.56</v>
+        <v>124.12</v>
       </c>
       <c r="E22" s="3">
         <v>124.64</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>-2.0799999999999983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.51999999999999602</v>
+      </c>
+      <c r="G22">
+        <v>124.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -920,19 +1018,22 @@
         <v>95</v>
       </c>
       <c r="D23">
-        <v>111</v>
+        <v>114.6</v>
       </c>
       <c r="E23" s="3">
         <v>118.2</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>-7.2000000000000028</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-3.6000000000000085</v>
+      </c>
+      <c r="G23">
+        <v>114.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -941,19 +1042,22 @@
         <v>55</v>
       </c>
       <c r="D24">
-        <v>57.16</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3">
-        <v>58.32</v>
+        <v>59.14</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>-1.1600000000000037</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-1.1400000000000006</v>
+      </c>
+      <c r="G24">
+        <v>57.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -962,19 +1066,22 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>26.18</v>
+        <v>28.32</v>
       </c>
       <c r="E25" s="3">
-        <v>28.38</v>
+        <v>28.24</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>-2.1999999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="G25">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -983,17 +1090,21 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>5.84</v>
+        <v>6.24</v>
       </c>
       <c r="E26" s="3">
         <v>6.36</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>-0.52000000000000046</v>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="G26">
+        <v>6.16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>